--- a/KetQuaTest_OrderDao.xlsx
+++ b/KetQuaTest_OrderDao.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -35,27 +35,100 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>ORD_DAO_04</t>
+  </si>
+  <si>
+    <t>Xóa đơn hàng</t>
+  </si>
+  <si>
+    <t>ID vừa tạo</t>
+  </si>
+  <si>
+    <t>Insert → Delete → kiểm tra lại</t>
+  </si>
+  <si>
+    <t>Không tìm thấy (null)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>ORD_DAO_01</t>
   </si>
   <si>
-    <t>Thêm đơn hàng (DB thật)</t>
-  </si>
-  <si>
-    <t>1. Tạo Order Object
-2. Call addOrder
-3. Check ID trả về</t>
-  </si>
-  <si>
-    <t>User: 1, Total: 500k</t>
-  </si>
-  <si>
-    <t>Insert thành công, ID &gt; 0</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Thêm đơn hàng</t>
+  </si>
+  <si>
+    <t>UserID=2025, Total=500k</t>
+  </si>
+  <si>
+    <t>Tạo Order → addOrder → kiểm tra ID &amp; dữ liệu</t>
+  </si>
+  <si>
+    <t>Insert thành công (ID &gt; 0)</t>
+  </si>
+  <si>
+    <t>ORD_DAO_03</t>
+  </si>
+  <si>
+    <t>Cập nhật đơn hàng</t>
+  </si>
+  <si>
+    <t>Pending → Shipped; Total 100 → 999</t>
+  </si>
+  <si>
+    <t>Insert đơn → Update → kiểm tra lại</t>
+  </si>
+  <si>
+    <t>Status cập nhật thành Shipped và Total = 999</t>
+  </si>
+  <si>
+    <t>ORD_DAO_07</t>
+  </si>
+  <si>
+    <t>Kiểm tra quyền sở hữu đơn hàng</t>
+  </si>
+  <si>
+    <t>Order thuộc User A</t>
+  </si>
+  <si>
+    <t>User A thấy đơn của mình → User B không thấy</t>
+  </si>
+  <si>
+    <t>User khác phải nhận null</t>
+  </si>
+  <si>
+    <t>ORD_DAO_05</t>
+  </si>
+  <si>
+    <t>Lọc đơn theo trạng thái</t>
+  </si>
+  <si>
+    <t>Status=Pending</t>
+  </si>
+  <si>
+    <t>Insert: 1 Pending, 1 Done → filter Pending</t>
+  </si>
+  <si>
+    <t>Trả về đúng 1 kết quả</t>
+  </si>
+  <si>
+    <t>ORD_DAO_06</t>
+  </si>
+  <si>
+    <t>Lấy lịch sử đơn hàng theo User</t>
+  </si>
+  <si>
+    <t>UserID=2025</t>
+  </si>
+  <si>
+    <t>Insert 2 đơn của user → getByUserId</t>
+  </si>
+  <si>
+    <t>Danh sách = 2</t>
   </si>
   <si>
     <t>ORD_DAO_02</t>
@@ -64,14 +137,13 @@
     <t>Lấy danh sách đơn hàng</t>
   </si>
   <si>
-    <t>1. Insert 2 đơn
-2. Call getAllOrders</t>
-  </si>
-  <si>
     <t>2 Orders</t>
   </si>
   <si>
-    <t>Size = 2</t>
+    <t>Insert 2 đơn → getAllOrders</t>
+  </si>
+  <si>
+    <t>Danh sách trả về = 2</t>
   </si>
 </sst>
 </file>
@@ -149,17 +221,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.37890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.90234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="34.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.48828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="41.3203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -233,6 +305,121 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
